--- a/test/sensitivity/out/KCOR_SA.xlsx
+++ b/test/sensitivity/out/KCOR_SA.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,13 +558,13 @@
         <v>44921</v>
       </c>
       <c r="F2" t="n">
-        <v>1.051581574034657</v>
+        <v>1.119003599697579</v>
       </c>
       <c r="G2" t="n">
-        <v>1.022243089538032</v>
+        <v>1.087991751871388</v>
       </c>
       <c r="H2" t="n">
-        <v>1.081762076130978</v>
+        <v>1.150899401564728</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
@@ -595,11 +595,23 @@
         <v>53</v>
       </c>
       <c r="Q2" t="n">
-        <v>61</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+        <v>21</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>2021_24</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>1,0;2,0</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -608,7 +620,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -620,13 +632,13 @@
         <v>44921</v>
       </c>
       <c r="F3" t="n">
-        <v>1.257935022181017</v>
+        <v>1.080993902981018</v>
       </c>
       <c r="G3" t="n">
-        <v>1.23171308410507</v>
+        <v>1.051173413557508</v>
       </c>
       <c r="H3" t="n">
-        <v>1.284715199058947</v>
+        <v>1.111660362801029</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
@@ -657,11 +669,23 @@
         <v>53</v>
       </c>
       <c r="Q3" t="n">
-        <v>61</v>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>2021_24</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>1,0;2,0</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -670,10 +694,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -682,13 +706,13 @@
         <v>44921</v>
       </c>
       <c r="F4" t="n">
-        <v>1.243533507657951</v>
+        <v>1.059424834331724</v>
       </c>
       <c r="G4" t="n">
-        <v>1.20828092108306</v>
+        <v>1.030096354716271</v>
       </c>
       <c r="H4" t="n">
-        <v>1.279814617350717</v>
+        <v>1.089588342352641</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
@@ -719,16 +743,28 @@
         <v>53</v>
       </c>
       <c r="Q4" t="n">
-        <v>61</v>
-      </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+        <v>31</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>2021_24</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>1,0;2,0</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022_06</t>
+          <t>2021_24</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -744,13 +780,13 @@
         <v>44921</v>
       </c>
       <c r="F5" t="n">
-        <v>1.119365483419242</v>
+        <v>1.064065318799178</v>
       </c>
       <c r="G5" t="n">
-        <v>1.070792199775275</v>
+        <v>1.034499068957447</v>
       </c>
       <c r="H5" t="n">
-        <v>1.170142148713219</v>
+        <v>1.094476579676621</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
@@ -778,23 +814,35 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="Q5" t="n">
-        <v>92</v>
-      </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
+        <v>36</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>2021_24</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>1,0;2,0</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022_06</t>
+          <t>2021_24</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -806,13 +854,13 @@
         <v>44921</v>
       </c>
       <c r="F6" t="n">
-        <v>1.050214214286846</v>
+        <v>1.079770452955286</v>
       </c>
       <c r="G6" t="n">
-        <v>1.026718864570918</v>
+        <v>1.04971989198022</v>
       </c>
       <c r="H6" t="n">
-        <v>1.074247229645554</v>
+        <v>1.110681277912977</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
@@ -840,26 +888,38 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="Q6" t="n">
-        <v>92</v>
-      </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>2021_24</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>1,0;2,0</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022_06</t>
+          <t>2021_24</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -868,13 +928,13 @@
         <v>44921</v>
       </c>
       <c r="F7" t="n">
-        <v>1.069660441514779</v>
+        <v>1.069729760478904</v>
       </c>
       <c r="G7" t="n">
-        <v>1.022907934709816</v>
+        <v>1.039907347301565</v>
       </c>
       <c r="H7" t="n">
-        <v>1.118549794479966</v>
+        <v>1.100407419395229</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
@@ -902,23 +962,35 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="Q7" t="n">
-        <v>92</v>
-      </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
+        <v>46</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>2021_24</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>1,0;2,0</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022_06</t>
+          <t>2021_24</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -930,13 +1002,13 @@
         <v>44921</v>
       </c>
       <c r="F8" t="n">
-        <v>1.548712839235437</v>
+        <v>1.037759424636207</v>
       </c>
       <c r="G8" t="n">
-        <v>1.51816181497497</v>
+        <v>1.008802828214747</v>
       </c>
       <c r="H8" t="n">
-        <v>1.579878662968634</v>
+        <v>1.067547188906194</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
@@ -964,26 +1036,38 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="Q8" t="n">
-        <v>92</v>
-      </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>2021_24</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>1,0;2,0</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022_06</t>
+          <t>2021_24</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -992,13 +1076,13 @@
         <v>44921</v>
       </c>
       <c r="F9" t="n">
-        <v>1.494127521947462</v>
+        <v>1.03123500980809</v>
       </c>
       <c r="G9" t="n">
-        <v>1.463597423397398</v>
+        <v>1.002450125523086</v>
       </c>
       <c r="H9" t="n">
-        <v>1.525294467011858</v>
+        <v>1.060846438518802</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
@@ -1026,14 +1110,766 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="Q9" t="n">
-        <v>92</v>
-      </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
+        <v>56</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>2021_24</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>1,0;2,0</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2021_24</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>44921</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.051581574034657</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.022243089538032</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.081762076130978</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>8</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>4/1/24</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>61</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>2021_24</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>1,0;2,0</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2021_24</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>44921</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.28057527077929</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.254063304442406</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.307647722664677</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>4/1/24</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>21</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>2021_24</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>1,0;2,0</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2021_24</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>44921</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.275318085323527</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.248998577973776</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.302192210171927</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>8</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>4/1/24</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>26</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>2021_24</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>1,0;2,0</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2021_24</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>44921</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.274426904174695</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.248040621593068</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.301371049935158</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>8</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>4/1/24</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>31</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>2021_24</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>1,0;2,0</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2021_24</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>44921</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.244358906792992</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.218509764945591</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.270756405455799</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>8</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>4/1/24</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>36</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>2021_24</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>1,0;2,0</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2021_24</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>44921</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.231967374555209</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.20634347265346</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.258135552911844</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>4/1/24</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>41</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>2021_24</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>1,0;2,0</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2021_24</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>44921</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.258594376012292</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.232372184978032</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.285374518054388</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>8</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>4/1/24</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>46</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>2021_24</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>1,0;2,0</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2021_24</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>44921</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.281196640832586</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.254485746667187</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.308476271525291</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>8</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>4/1/24</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>51</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>2021_24</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>1,0;2,0</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2021_24</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>44921</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.260524277883489</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.234244493728215</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.287363616534454</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>8</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>4/1/24</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>56</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>2021_24</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>1,0;2,0</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2021_24</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>44921</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.257935022181017</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.23171308410507</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.284715199058947</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4</v>
+      </c>
+      <c r="J19" t="n">
+        <v>8</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>4/1/24</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>61</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>2021_24</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>1,0;2,0</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test/sensitivity/out/KCOR_SA.xlsx
+++ b/test/sensitivity/out/KCOR_SA.xlsx
@@ -7,7 +7,40 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_06_1_vs_0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_13_1_vs_0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_13_2_vs_0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_13_2_vs_1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_20_1_vs_0" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_20_2_vs_0" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_20_2_vs_1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_24_1_vs_0" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_24_2_vs_0" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_24_2_vs_1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_30_1_vs_0" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_30_2_vs_0" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_30_2_vs_1" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_06_1_vs_0" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_06_2_vs_0" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_06_2_vs_1" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_06_3_vs_0" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_06_3_vs_1" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_06_3_vs_2" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_26_1_vs_0" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_26_2_vs_0" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_26_2_vs_1" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_26_3_vs_0" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_26_3_vs_1" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_26_3_vs_2" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_47_1_vs_0" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_47_2_vs_0" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_47_2_vs_1" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_47_3_vs_0" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_47_3_vs_1" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_47_3_vs_2" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_47_4_vs_0" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_47_4_vs_1" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_47_4_vs_2" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_47_4_vs_3" sheetId="34" state="visible" r:id="rId34"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,10 +474,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>tau_0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>tau_0.2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tau_0.5</t>
         </is>
@@ -452,35 +500,6445 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8950110115885284</v>
+        <v>1.452943784937324</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9130188938218136</v>
+        <v>1.44041459197051</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.434643444589058</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.453773418894224</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.420046246925177</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9080009932505784</v>
+        <v>1.417665694724698</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9253059440469789</v>
+        <v>1.405576700057127</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.400008036256043</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.418466406774882</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.385921316170933</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.418107079307117</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.406137618786875</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.40062727001204</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.418902440739486</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.386677242221921</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.364178418804053</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.352790073902044</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.347540540134721</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.364931010298551</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.33426648098873</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.377433522646509</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.366041609442172</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.360797197947939</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.378191229762468</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.347516248725679</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.335898064935931</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.324965711452448</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.319924455611196</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.336619867405339</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.307178404160162</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>8</v>
       </c>
+      <c r="B8" t="n">
+        <v>1.312404121271725</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.301782634131825</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.296881299793483</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.313103423874965</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.284496146095038</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Normalization_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7967898795540658</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7576022805031165</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7473354459591748</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7714294375804251</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.7648233816996719</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7457585991256154</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7093225168676204</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6997681719339771</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7221659544557635</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.7160187972032034</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
       <c r="B4" t="n">
-        <v>0.9436515144499253</v>
+        <v>0.7950426327171365</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9608624941725707</v>
+        <v>0.7564049600203235</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7462823171795655</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7700514139010659</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.7635395832568256</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7972110030252603</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7587178770126157</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7486311124359097</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7723155878091903</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.7658275381222996</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7995654973283381</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7612253991719878</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7511771349264861</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7747727011675727</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.7683101761827368</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8030657921226908</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7648161632429132</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7547908276629262</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7783367843653236</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.7718897640919564</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8148050329869039</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7762260308589085</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7661175349405204</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7898768127383244</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.7833771249705268</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Normalization_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.253780308391853</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.229204417399631</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.214847770347101</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.179429835773285</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.165284590553018</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.213317497339935</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.189680684720196</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.175870064375084</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.141802367199304</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.128192383941756</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.190434157620416</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.167391625327461</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.153926422745247</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.120707203181938</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.107433926612098</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.168023958926773</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.145564513137753</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.13243790662231</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.100053310678831</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.087110510622767</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.173610775926947</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.151202786346327</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.138107042753289</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.105771117016324</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.092851580580793</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.179974975245413</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.157601038689325</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.14452593720467</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.112214477463855</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.099308360341588</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.163982371411657</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.142055918552742</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.12923937323233</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.097574276739207</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.084921366308507</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Normalization_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.573539449438725</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.622493027058114</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.625572260643805</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.528888811234046</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.523599589703179</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.626957434701419</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.677206991783999</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.680370887868886</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.581080304539953</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.575646321505132</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.497321160692969</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.54334210777266</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.546233102649808</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.455366723508053</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.450394911929013</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.465137779702425</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.509868882552645</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.512678123859376</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.424357255043015</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.419523922172095</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.467810679485847</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.512302121813764</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.515098090498548</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.427220028983908</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.422409352965366</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.469337863497414</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.513567696818744</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.516348497170386</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.428963014218561</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.42417792213478</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.42854096905212</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.471292990894721</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.473976670329054</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.389551204743136</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.384928576194161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Normalization_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7233269131115453</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7302005578439371</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.729052518341849</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7334433889150548</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.7520751699801738</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7987438852641996</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8062073541118503</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8050153189950091</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8097517384574376</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.829943880675574</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8914864358743481</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8997239168131778</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8985128397656046</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9036804262931771</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9258963809586418</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.900126405345465</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9082216179848768</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9070002572725793</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9120965988187336</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9339436659925884</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9046208618079794</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9125373391930051</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9113145758530397</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9163147923783141</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9376928363264885</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9394119362663187</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9474904472927396</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9463028430497131</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9513708702477699</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9731440864522721</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9402860889418908</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.948160589219739</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9469710145332778</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9519294989221387</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9731687808885364</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Normalization_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.100054044003255</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.095103975958683</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.075064936030224</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.071239653831157</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.074001125025846</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.078415208741569</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.07367137111394</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.054458902737488</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.050805294077183</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.053452396685357</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.041618252961841</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.037134438154834</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.018965501235247</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.015536451604627</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.018038333116489</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.041920576378425</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.037540430539531</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.019786540262068</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.016432421399981</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.018877929258174</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.038914125269254</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.034651368885799</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.017367488964743</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.014104379649448</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.016485492386159</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.029318878923669</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.025193627319344</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.008460226772683</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.005313856264201</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.007618643954389</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.022233891511214</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.018231490196813</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.001990028428684</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9989467023546611</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.001183384776422</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Normalization_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.520825541069856</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.499730401729897</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.474605613427333</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.460562151109968</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.42805023739071</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.350138922672144</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.331755863597571</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.309861909278804</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.297688222416105</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.269305577417894</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.168406170914141</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.152725206892759</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.134057807678146</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.123778298231239</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.099516483758632</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.157526954204326</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.142386846991797</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.124350883128354</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.114391197945891</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.090941527158726</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.148452538661197</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.133818118391499</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.116373550826214</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.106720515792742</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.08402821585835</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.095705557047406</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.082009460093899</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.065684452054113</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.056700270844306</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.035425953856226</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.087151988669256</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.07390193367427</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.058099997836283</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.049391476454674</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.028786994032328</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Normalization_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.42816416350193</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.436512614660653</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.420603795984203</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.424239939989743</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.434780187163635</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.420358396987524</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.428485982020834</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.413019154517981</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.416551310196345</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.426807714724308</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.368042141471624</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.37568726463046</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.361091100682016</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.364432545909575</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.374092717732932</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.338452555728825</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.34575140922742</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.331803916350741</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.334999301504159</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.344225541410556</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.312401277754091</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.319380604763364</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.306029087253452</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.309090704946195</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.317917190819788</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.271042729059369</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.27761757471797</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.264968782324692</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.26788111822136</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.276214706949292</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.243769242291301</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.250039493727493</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.237936076184596</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.240729708197594</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.248688002101515</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Normalization_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.974438027417473</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.967285013999775</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.948561674562502</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.941853947441735</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.907761676537545</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.778240088207641</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.771859280041559</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.755269895089712</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.749364950910571</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.719161678212372</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.534563047086501</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.529010443006944</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.514826544979684</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.509861789865656</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.484067489615029</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.48696066216959</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.481743423167261</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.468361123022809</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.463659993067765</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.439300452861815</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.450774941372808</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.445837389985759</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.433126520588062</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.428647355510241</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.405489238867248</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.353019564676933</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.34842264464882</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.33674836931483</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.332688605329234</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.311434477911595</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.322756187631067</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.318383729444161</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.307258677600309</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.30338403169821</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.283115556750002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Normalization_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.298267272673836</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.31175910799072</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.321412082538858</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.329525036621006</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.335920562587034</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.317079345204134</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.330468540423847</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.340041940799809</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.348062593689499</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.354411190494889</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.313381498050362</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.326430994884275</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.335757784765063</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.3435584156075</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.349745557739918</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.284601327656956</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.29705924667207</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.30596341858806</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.313416685061463</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.319319520827448</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.263243270866067</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.275193407596016</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.283733853715383</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.290883592671907</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.296543040398963</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.23483864435525</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.246220753496741</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.254356640690628</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.261179392207796</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.266565197663275</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.216716890938317</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.227657468623244</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.2354774409541</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.242037943839261</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.247212070324523</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Normalization_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.021707814578681</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9137420714640235</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9223122592360836</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9562868290418208</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9512719876786647</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9032996361945161</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8087457479568584</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8162432422201324</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8460223977399723</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.8416458233118316</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.007931891369443</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9031153055770106</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9114675180557577</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9444302093651904</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9395218719583399</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.077333843142981</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9661903626716248</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9750778879376386</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.009998577829635</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.004752248215634</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.104692228392812</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.991669994394589</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.000721294901327</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.03622658831407</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.030875623183119</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.106025614761371</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9938898965439081</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.002870910861386</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.038111469633272</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.032805414481943</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.079352651118654</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9708920136540967</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9795621090129816</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.013685420369802</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.008581030053368</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Normalization_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.887247433163918</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.912887378256799</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.872321929621859</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.910772403644347</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.889572941035536</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.862244598403779</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.887287061823236</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.847684943571889</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.885218612445648</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.864538265745959</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.747710419882593</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.770927532019074</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.734184111512377</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.769013454937105</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.749806857509685</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.684614780636359</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.706745607056203</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.671710097099615</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.70492241092342</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.686601886149059</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.610268586716815</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.631172806729359</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.598050096506997</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.629454459673881</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.612113950052749</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.568178304579116</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.588320945502717</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.556393200440256</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.586666632055756</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.569944374757114</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.514540412581083</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.533747542639428</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.503275344639592</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.532173626165534</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.51619479297839</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Normalization_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.019248890934412</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.975215736457808</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9509441079033764</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9801088043459473</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9824174158641651</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.04476724664642</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.000049112213462</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9753803332625393</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.005010297818495</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.007349904785279</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.0170233969055</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.973868231676943</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9500694155901629</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.978672580700908</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9809392125885967</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.021019638845219</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9781129218430341</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9544358404205738</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9828854848676414</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9851363144790892</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.021520459657634</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9789836709303664</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9554996382899046</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9837141506910078</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9859446290642252</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.005303654806002</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9638243778287542</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9409317039125074</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9684534917103655</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9706371359904135</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9923871818745795</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.951773763141464</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.929365031636911</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9563198614737017</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9584651399416932</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Normalization_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9975933201163946</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.06727682451492</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.031043552094827</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.024910910179528</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.032740823433162</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.156612052948331</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.236543270539468</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.194962828249044</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.187923984640638</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.196881012040684</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.00901996019166</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.078343181278195</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.042351369379291</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.036257174957093</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.044083423565144</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9477281766871146</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.012339762051075</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9788303603512902</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9731553157032596</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9804768451412963</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9247104608890182</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.987207111704567</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9548109380285729</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9493234026078223</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.956414728306256</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9089334291981106</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9697496485076446</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9382381059435876</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9328993273260775</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9398063975848604</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9194281228160762</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9803085716601186</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.948755595062114</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9434089139062762</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9503104970068468</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Normalization_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.033660431017176</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.991054100152624</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9785979000041551</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.011043906904355</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.010594276320711</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.066956295506872</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.023388353369267</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.010640649684444</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.043831333383841</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.043360172406042</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.047763099284359</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.005349214737788</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9929391567755552</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.025254314973689</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.024802216805089</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.070065584009674</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.027173916533927</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.014612130641009</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.047305006735167</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.046833732150558</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.069020288447565</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.026560148753527</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.014120904889407</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.046491691967144</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.046025043412919</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.083156387939547</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.040541030108805</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.028045641214272</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.060547194054347</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.060066584073932</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.067642489640966</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.025975068292335</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.013761921933553</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.045540249812502</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.04508391282375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Normalization_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.011698664009361</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.08461034147714</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.061026664456017</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.057260098329912</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.06236101704919</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.181176492001945</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.265401834822207</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.238161123313637</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.233810518695825</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.239666547979143</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.039517757356401</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.113201391372123</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.089385125751474</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.085579754657388</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.090769940958362</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9932534755316863</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.063117534823754</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.040544702318076</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.036937110333066</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.041882448145458</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9677087074314396</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.035183230869296</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.013389951884057</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.00990623457151</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.014695681893245</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9793230586013522</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.046937929168129</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.025102662845474</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.021612057160876</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.026395262079123</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9891507548848356</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.056734481140622</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.034913368540797</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.031424768278782</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.036192315424028</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Normalization_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.014139372837141</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.016240881994321</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.029080354850454</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.03156292691305</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.028681149175028</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.02123826998949</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.023338094970303</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.036150325385343</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.038627500284934</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.035747526703185</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.030225167358381</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.032325711052959</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.045122746277189</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.047596852299081</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.044715313297286</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.04803624073277</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.050158824809766</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.063049068016891</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.065541228209511</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.062628305103231</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.046499145798657</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.048597825720573</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.061351427306052</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.063816852926268</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.060936905154316</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.077442007458502</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.079596090371644</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.092582635848633</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.095093572517703</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.092134789374473</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.075832607616144</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.077961074390157</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.09081134691284</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.093295550927187</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.090372376910156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Normalization_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9996749111427558</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.054019851155753</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9733370903490658</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.011181716336691</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.025802105801138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9244266730407175</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9734934263231108</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9005183313915804</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9347650163463219</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9479667100839965</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9683003282862801</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.018762277789978</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9438071994084997</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9789915379459561</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.992574748143257</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9322861487114417</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9797487987235841</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9090861349204739</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9422725899767124</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9550484928103654</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.911553302344779</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9569677473055258</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8892387453650824</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9210615232662884</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9332868455612228</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8512148690557215</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8924339754382528</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8306472305175122</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8596992106862118</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.8707915291730305</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.834698278133766</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8743213492226102</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8148272211777557</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8428123813788378</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.8534756259453816</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Normalization_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9755813824081027</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9694025206193211</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9490446670682303</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9630243539977706</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9510571295201112</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9937437613462429</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9875791568389645</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.967253882285503</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9812154080534478</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9692594433380569</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.988752431585378</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.982745501047316</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9629340574755779</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9765416835820717</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9648951455171734</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9844947506450656</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.978621687530023</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9592466957896507</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.972553742906438</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9611698186647384</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9868804898606152</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9810994176321095</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9620191508832702</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9751254667565111</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9639132738515316</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9823018667205683</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9766454106707627</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9579737771447173</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9707976058428419</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.95983403138503</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9806872425816872</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9751309674100744</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9567855752698096</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9693850012961286</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9586168861819951</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Normalization_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9758986361805247</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9197194147305218</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9750421272119367</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9523751650560046</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9271350917898028</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.074983868734035</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.014469261049924</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.07410793158513</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.049692051900578</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.022461477842586</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.021121652757564</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9646465347924015</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.020265641202001</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9974975735040322</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9721133318393783</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.056000619558474</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9988495916555044</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.055176906722447</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.032136298192091</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.006409439835207</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.082636075501096</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.025216806307767</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.081845742661952</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.058697429134267</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.032815664804417</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.153999891719779</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.094361529872454</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.153285946126465</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.129229379038224</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.102254672018412</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.174900282260467</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.115300419321909</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.174218963729349</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.150178880512195</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.123191872199221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Normalization_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9948602861017111</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9779875327051122</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9645510112341635</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.98631294232846</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9687977599873978</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9922489390290913</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9757547415948479</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9626167344299565</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9838987498248891</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9667697330418711</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.026688267834359</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.009966859299774</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9966782712068263</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.018260497934487</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.000875457653996</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.017386761569456</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.001125475617964</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9881763869450053</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.009173205949568</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9922697279224443</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.01772487780732</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.001748803900405</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9890183526388653</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.009654051035644</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9930438085669764</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.014770816426246</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9991208040253533</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.986635195882506</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.006856781998166</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9905852297000326</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.001725817950956</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9865383606514418</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9743806797303373</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9940122628434647</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9782320964024465</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Normalization_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9951838092690143</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9278644340832193</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9909732412316155</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9754062265896916</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9444294903555297</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.073366842353527</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.002322887048429</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.068958510752818</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.052562657587052</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.019835108931419</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.060299411083971</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9913665644263117</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.056018932501746</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.040111643938131</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.008362805447415</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.091281644563352</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.021818528302591</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.086999734113699</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.070999216876837</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.038973136330021</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.116473249769857</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.046794739656552</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.112207894442137</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.096185244450541</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.064028506658978</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.192144138121039</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.119545906502169</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.187790869136842</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.17117332374249</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.137568748102967</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.200105288572816</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.128347559542733</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.195812626782353</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.179399217198571</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.146174614323489</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Normalization_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.29891290546064</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.328011663391953</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.305078231586783</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.314353652921876</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.33064183305792</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.313599253571142</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.342713678838394</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.319767383988053</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.329054113260252</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.345342079662476</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.232424860847968</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.259426892758133</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.238148184489846</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.246747770773551</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.261870321536329</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.234893293586352</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.261648529200983</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.240563862318001</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.249090538686276</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.264066743923026</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.169035427294489</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.194087204558472</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.17434846200215</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.18231376349327</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.196359562697144</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.173875721314355</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.198763810847282</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.179153241553936</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.187073954793004</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.201017680341632</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.154019854123505</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.178190200441798</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.159146442221794</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.166833928163932</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.180380959170437</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Normalization_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.019761451008855</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.008855982838075</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.01633889816149</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.024182761561546</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.018653590743006</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9984957668412162</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9880268683657074</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9952058627621226</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.002734712224673</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.997431327274345</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.038367375934696</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.027699295721475</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.035043120003162</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.04272097653772</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.037289349318404</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.033410041955875</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.022995390736475</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.030158760287978</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.037652894053643</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.032356310668296</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.031254430768067</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.021047190424528</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.028065139587716</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.035409375979055</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.030221115846913</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.033053942790596</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.023012848992097</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.029918792582418</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.037143865969897</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.032038037107966</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.021452889826408</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.011698319120831</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.018389809498921</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.025405036713388</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.020461991128255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Normalization_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.080694938232002</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.067100856630822</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.016224066297488</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.048712434227812</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.030409839751456</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.035525185240397</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.022761522056276</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9749738934751327</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.005491434926152</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9883082575162484</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.053314312744299</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.040601062166208</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9929513192749031</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.023390667178671</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.00624847946933</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.050774523926357</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.038324327979624</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9916338565604117</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.021464627167467</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.004668909245448</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.047450307164241</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.035261583531147</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9895285239235324</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.01875109019658</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.002302041651851</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.056423545962263</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.044342862877477</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9989774957534051</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.027972399232769</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.011649358350012</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.048452694570895</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.036659845181845</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9923667865554421</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.020676503783154</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.004747112153796</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Normalization_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.081046374362471</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.012410587391428</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.044061791514635</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.037115700654761</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.004491835144674</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.120180989406377</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.050609582356658</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.082680784486081</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.075662243818532</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.042555869318109</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.08779712448149</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.021436585209657</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.052070083696334</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.045351902965238</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.013776021757205</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.127094428442045</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.059786273106282</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.090802970663675</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.084043660012133</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.051955913033346</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.149082894516312</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.081814498394609</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.112781611328997</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.106061934477365</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.073948536207137</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.2410774110821</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.170218628626981</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.202649523229036</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.195734957593181</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.161758382411863</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.256085848068413</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.185673718368625</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.217886149067368</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.211036437449259</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.177241717993825</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Normalization_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.107744528257027</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.100782011531272</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.0707863407913</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.08897810307115</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.083436323400871</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.042044464095605</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.035624855965898</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.007981370073582</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.024740772182597</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.019652957016945</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.06529630582592</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0588713568846</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.031172707587078</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.047974381825414</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.042857852632259</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.067323643155907</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.06100686425649</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.033763119448746</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.050291189168488</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.045256404993177</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.061375027600536</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.055205583578633</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.028595452611317</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.044738472050348</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.039825956174385</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.075457129577847</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.06931630606877</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.042802548031013</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.058894658418824</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.053983631826654</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.069099962808544</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.063098065622088</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.037188281476337</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.052911384453489</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.048121649677515</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Normalization_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.08627809686386</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.091119079687266</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.053572133004358</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.063265409203737</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.063596430863816</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.043614303335664</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.048174790710826</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.012837049890364</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.021946043843541</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.02227885683451</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.025933913675767</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.030331889194535</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9962606268847313</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.005038169755764</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.005368322076683</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.032817177909211</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.037157033026952</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.003498838528307</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.012179694373013</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.01249577707965</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.029207725982846</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.033454274664723</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.000515836013868</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.009010055624106</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.009323086257629</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.041046440104286</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.04526185289099</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.012509486710394</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.020971818050128</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.02126432740811</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.046646373471256</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.050805408618177</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.018459014222329</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.026824861157561</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.027105035552259</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Normalization_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.327208274161604</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.310157193183222</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.336770120846099</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.345592467652718</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.33491761784463</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.359461224269309</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.342212135630621</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.369152972263317</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.378090649295366</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.367284551459038</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.287428844667005</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.271285469829613</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.296472398428792</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.304817358612487</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.294717352851885</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.263733675197883</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.248070289330344</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.272505199615261</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.280599295398312</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.270802090795677</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.256613033016879</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.241233960437895</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.265232554200369</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.273184354543818</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.263562838379457</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.221155625939004</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.206394151601484</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.229408439212856</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.237025719013469</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.227800986244823</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.193061504667658</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.178815671247273</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.201009841970794</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.208349003870874</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.199454856029033</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Normalization_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.385719030859695</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.396900307665415</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.40092372946995</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.399339184163719</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.390273774169974</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.356700878640769</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.367517710263046</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.371405861576428</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.36987441617352</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.36110862301271</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.311985806486082</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.32231139953034</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.32602870935073</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.324564892137385</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.316190943792122</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.291140778939877</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.301188892452832</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.304803072604676</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.303379732759683</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.29523404379579</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.29353816314896</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.303508302875129</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.307075934321967</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.305669996584062</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.297606839684087</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.257891361064435</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.267438191224726</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.270870313402894</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.269518651746821</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.26178081673183</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.237179165877053</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.24644509958041</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.249780500878034</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.248467186822731</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.240952351694991</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Normalization_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.044085587648293</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.066208173289067</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.047991504016596</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.039942789368283</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.041467844596075</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9979695297083419</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.018853632716215</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.001645462091344</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9940379588773441</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9954830701189898</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.019074422575508</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.040137271220102</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.022797485667846</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.015134327723765</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.016585543472431</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.021687404775142</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.042560586191816</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.025381328892943</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.0177888879396</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.019225615992507</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.029384646794114</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.050171316949194</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.033071691036312</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.025515269587084</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.026942863679255</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.030082762872409</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.050600410771394</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.033725060661357</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.026266982354469</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.02767535689227</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.036978530475413</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.057370655975061</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.040608042667834</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.033200824284491</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.034596963326608</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Normalization_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.139335488768978</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.129633179549423</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.103869092603397</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.110330001988648</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.113363599583812</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.117630592092306</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.108235414193883</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.083277825586724</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.089537155959132</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.092475965227125</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.094147280125427</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.085066430339236</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.060940063152516</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.066991507283725</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.069832568801804</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.080655871730254</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.071806239871034</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.048284970961177</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.05418528356806</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.056955258635113</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.072698765167879</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.06402626635601</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.040964678303757</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.046750300483452</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.049466315359536</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.061199299874081</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.052737854395337</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.030231668735778</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.035878541563657</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.038529287009537</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.047111634875608</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.038876211070023</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.016971790223755</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.022468175505639</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.025048138295072</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Normalization_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.369218180587255</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.363913040716828</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.352290590830165</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.338490652558873</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.337991547336577</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.295825606992226</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.290864519407276</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.280004859664756</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.267119695745602</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.266654400541663</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.268504320086016</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.263712180833622</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.253215858442378</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.240756180290623</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.240305988653287</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.224821838174579</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.220252574944139</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.210251006486111</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.198385343669351</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.197957174701846</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.215181690016729</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.210711814419351</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.20091419806176</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.189278102665232</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.18885749325969</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.201751533286618</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.197395572535077</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.187838728944745</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.176480634551379</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.176069651341907</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.192156459289939</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.187898758214803</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.17854707357995</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.167423422800474</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.167020400472002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Normalization_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tau_0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.201769096183126</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.207394635186665</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.225046158001293</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.205489043943313</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.20175614492582</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.159439994002244</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.164792699163323</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.181603490287897</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.162988970881073</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.15943456960019</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.159354268961489</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.164640380993571</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.181231534153331</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.162854785460529</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.15934588721898</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.133405990024835</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.138501092409171</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.154505730799924</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.136788155126984</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.133403864463302</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.132826595383048</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.137858953957686</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.153655088488343</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.136162179381226</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.132821011842005</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.13244659455506</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.137410958992091</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.152982154394817</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.135732218929339</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.132437636620166</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.138518969308904</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.143445913533133</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.158878825262837</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.14176993550254</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.138503019392891</v>
       </c>
     </row>
   </sheetData>

--- a/test/sensitivity/out/KCOR_SA.xlsx
+++ b/test/sensitivity/out/KCOR_SA.xlsx
@@ -7,9 +7,40 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_24_1_vs_0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_24_2_vs_0" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_24_2_vs_1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_13_1_vs_0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_13_2_vs_0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_13_2_vs_1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_20_1_vs_0" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_20_2_vs_0" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_20_2_vs_1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_24_1_vs_0" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_24_2_vs_0" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_24_2_vs_1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_30_1_vs_0" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_30_2_vs_0" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021_30_2_vs_1" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_06_1_vs_0" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_06_2_vs_0" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_06_2_vs_1" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_06_3_vs_0" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_06_3_vs_1" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_06_3_vs_2" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_26_1_vs_0" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_26_2_vs_0" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_26_2_vs_1" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_26_3_vs_0" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_26_3_vs_1" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_26_3_vs_2" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_47_1_vs_0" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_47_2_vs_0" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_47_2_vs_1" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_47_3_vs_0" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_47_3_vs_1" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_47_3_vs_2" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_47_4_vs_0" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_47_4_vs_1" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_47_4_vs_2" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022_47_4_vs_3" sheetId="34" state="visible" r:id="rId34"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -482,25 +513,25 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1.11239093217745</v>
+        <v>1.510725915587212</v>
       </c>
       <c r="C2" t="n">
-        <v>1.116652022837704</v>
+        <v>1.507808300726243</v>
       </c>
       <c r="D2" t="n">
-        <v>1.121113296243488</v>
+        <v>1.503470502377238</v>
       </c>
       <c r="E2" t="n">
-        <v>1.124661199981692</v>
+        <v>1.500707904582673</v>
       </c>
       <c r="F2" t="n">
-        <v>1.126835345074138</v>
+        <v>1.503313825588645</v>
       </c>
       <c r="G2" t="n">
-        <v>1.127596942767148</v>
+        <v>1.50839984782456</v>
       </c>
       <c r="H2" t="n">
-        <v>1.127216918679017</v>
+        <v>1.515918723452579</v>
       </c>
     </row>
     <row r="3">
@@ -508,25 +539,25 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>1.09148196792435</v>
+        <v>1.473833296173648</v>
       </c>
       <c r="C3" t="n">
-        <v>1.095611641966037</v>
+        <v>1.471028933338181</v>
       </c>
       <c r="D3" t="n">
-        <v>1.099935056524756</v>
+        <v>1.466859318954179</v>
       </c>
       <c r="E3" t="n">
-        <v>1.103373130083406</v>
+        <v>1.464203710299368</v>
       </c>
       <c r="F3" t="n">
-        <v>1.105479886079249</v>
+        <v>1.466708712433572</v>
       </c>
       <c r="G3" t="n">
-        <v>1.106217862190419</v>
+        <v>1.471597527074371</v>
       </c>
       <c r="H3" t="n">
-        <v>1.105849625858464</v>
+        <v>1.478824276325804</v>
       </c>
     </row>
     <row r="4">
@@ -534,25 +565,25 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>1.068762797553987</v>
+        <v>1.474118494222454</v>
       </c>
       <c r="C4" t="n">
-        <v>1.072758159854833</v>
+        <v>1.471351554333094</v>
       </c>
       <c r="D4" t="n">
-        <v>1.076940711883002</v>
+        <v>1.467237407898519</v>
       </c>
       <c r="E4" t="n">
-        <v>1.080266586559201</v>
+        <v>1.464617018164631</v>
       </c>
       <c r="F4" t="n">
-        <v>1.082304510686156</v>
+        <v>1.467088800991927</v>
       </c>
       <c r="G4" t="n">
-        <v>1.083018361389894</v>
+        <v>1.471912568032121</v>
       </c>
       <c r="H4" t="n">
-        <v>1.08266216411227</v>
+        <v>1.47904263999716</v>
       </c>
     </row>
     <row r="5">
@@ -560,25 +591,25 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>1.055793997008454</v>
+        <v>1.417635402271674</v>
       </c>
       <c r="C5" t="n">
-        <v>1.059692318425459</v>
+        <v>1.415008674258564</v>
       </c>
       <c r="D5" t="n">
-        <v>1.063773035554024</v>
+        <v>1.411102853684216</v>
       </c>
       <c r="E5" t="n">
-        <v>1.067017752998908</v>
+        <v>1.408615054923183</v>
       </c>
       <c r="F5" t="n">
-        <v>1.069005869361507</v>
+        <v>1.41096176825056</v>
       </c>
       <c r="G5" t="n">
-        <v>1.069702259091796</v>
+        <v>1.415541265900018</v>
       </c>
       <c r="H5" t="n">
-        <v>1.069354775409248</v>
+        <v>1.422309815755856</v>
       </c>
     </row>
     <row r="6">
@@ -586,25 +617,25 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>1.048193555154781</v>
+        <v>1.431213619172706</v>
       </c>
       <c r="C6" t="n">
-        <v>1.052018977479699</v>
+        <v>1.428592884274806</v>
       </c>
       <c r="D6" t="n">
-        <v>1.056023158979386</v>
+        <v>1.424695836249927</v>
       </c>
       <c r="E6" t="n">
-        <v>1.059206855876862</v>
+        <v>1.422213538430642</v>
       </c>
       <c r="F6" t="n">
-        <v>1.061157511615564</v>
+        <v>1.424555064585527</v>
       </c>
       <c r="G6" t="n">
-        <v>1.061840766881617</v>
+        <v>1.429124266830457</v>
       </c>
       <c r="H6" t="n">
-        <v>1.061499837854165</v>
+        <v>1.435877181981692</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +643,25 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>1.037096747454608</v>
+        <v>1.387511244817462</v>
       </c>
       <c r="C7" t="n">
-        <v>1.040834720597306</v>
+        <v>1.384998496830152</v>
       </c>
       <c r="D7" t="n">
-        <v>1.04474713319296</v>
+        <v>1.381261902667689</v>
       </c>
       <c r="E7" t="n">
-        <v>1.047857695310195</v>
+        <v>1.378881731992785</v>
       </c>
       <c r="F7" t="n">
-        <v>1.049763466992396</v>
+        <v>1.381126924259034</v>
       </c>
       <c r="G7" t="n">
-        <v>1.050430987408922</v>
+        <v>1.385507989249805</v>
       </c>
       <c r="H7" t="n">
-        <v>1.050097910582227</v>
+        <v>1.391982481668057</v>
       </c>
     </row>
     <row r="8">
@@ -638,25 +669,2455 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>1.0234366802248</v>
+        <v>1.362599224611691</v>
       </c>
       <c r="C8" t="n">
-        <v>1.027080163121075</v>
+        <v>1.360160467752528</v>
       </c>
       <c r="D8" t="n">
-        <v>1.030893453943089</v>
+        <v>1.356533776648376</v>
       </c>
       <c r="E8" t="n">
-        <v>1.033925047629494</v>
+        <v>1.354223534529898</v>
       </c>
       <c r="F8" t="n">
-        <v>1.035782366466929</v>
+        <v>1.356402765491929</v>
       </c>
       <c r="G8" t="n">
-        <v>1.036432902983914</v>
+        <v>1.360654963002277</v>
       </c>
       <c r="H8" t="n">
-        <v>1.03610830154178</v>
+        <v>1.366938632058798</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Baseline_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-12w</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-8w</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-4w</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>offset_0w</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>offset_4w</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>offset_8w</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>offset_12w</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6878360729149605</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6878969437426661</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6876594941398164</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6876788855379582</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.6893352346018888</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.6942458151490599</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.7004604602232277</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6442171758016589</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6442692130562367</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6440394378358537</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6440533041387474</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.6456040766154484</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.6501822481182391</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.6559782247640931</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6872798084509626</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.68733496821463</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6870912817723827</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6871059693209051</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.6887504131862175</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.6936048361592424</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.6997500878769239</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.6896698587229096</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6897224963248444</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6894750256295493</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6894875316712592</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6911319001159835</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.6959761198898533</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.702109231161629</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6922700934554095</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6923200440083958</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6920685752023509</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6920787604802311</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6937228794948274</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.6985557485178907</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.7046753071965455</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6958685554383214</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6959160902533146</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6956606365524954</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6956686959562399</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.6973145551437624</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.7021427421323607</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.7082570931232344</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7065842453861269</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7066311394571345</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7063713832847669</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7063785513559894</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.7080412018726904</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.7129140730529019</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.7190850964700912</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Baseline_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-12w</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-8w</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-4w</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>offset_0w</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>offset_4w</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>offset_8w</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>offset_12w</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.085025641218663</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.082661461967396</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.077675593545817</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.075492287808985</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.082702004876971</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.093921813575697</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.109467303650046</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.050917161197491</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.04864090448979</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.043840334898214</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.041738118703809</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.048679939946232</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.059482154748203</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.074447697055233</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.031965680109571</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.029743995696377</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.025058396347115</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.023006474801404</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.029782095605973</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.040325000747129</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.054929953055486</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.013400985124548</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.0112327846466</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.0066598640246</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.004657235277483</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.011269967663802</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.021558738483372</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.035810308564716</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.019196995070415</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.017031152723963</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.012463074993837</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.010462511215562</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.017068295636393</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.027345520201093</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.041579666792618</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.025693174076643</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.023528257485542</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.018962002911312</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.016962182202015</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.023565384854113</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.033837863716902</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.048064023239011</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.012689806255104</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.01056581604843</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.006085766040689</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.004123648853786</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.010602241849477</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.020680205307884</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.034635681456745</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Baseline_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-12w</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-8w</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-4w</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>offset_0w</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>offset_4w</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>offset_8w</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>offset_12w</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.57744800533718</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.573871597796206</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.567164567245402</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.5639454844795</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.570646545439191</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.57569810246652</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.583911393508883</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.631308820491689</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.627643977453655</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.620770831062457</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.617471895586128</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.624339092534687</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.629515659362527</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.637931956417657</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.501521894605757</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.498169078129639</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.491880953143418</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.488862738032217</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.49514552135383</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.499881411594258</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.507581022613652</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.469400137336878</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.466144413202279</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.460038183551948</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.457107183421111</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.463208350669522</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.467807169368177</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.475283705999683</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.47225339460091</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.469018789107354</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.462951954866333</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.460039765581601</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.466101703863403</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.470670769485167</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.478098716040442</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.473975459963942</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.470763892113741</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.464740060557415</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.461848417376517</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.467867517325935</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.472404116258762</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.47977907092651</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.433218774502537</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.430117864356773</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.424301422521098</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.421509255803753</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.42732123381598</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.431701580720717</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.43882231259646</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Baseline_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-12w</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-8w</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-4w</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>offset_0w</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>offset_4w</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>offset_8w</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>offset_12w</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7569943870377256</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7575454121722712</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7596010942066082</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7627280152077788</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.7645214609641645</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.764446613667935</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.7608534149648765</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8344162920373628</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8350056217954249</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8372053418945897</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8405517353746256</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.8424713619031492</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8423917073352758</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8385470064524843</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9306180686135712</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9312790412532332</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9337078805653908</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9373848229683703</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9394755711532232</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.939366960943558</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9351256547117277</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9381630691057092</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9388037865651678</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9411693737829063</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9447556923759274</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.946800108161843</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9467002330544778</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9425687289166957</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9413306247197959</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.941947179595519</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9442365820870282</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9477133859094043</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9497014379696248</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9496116611046188</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9456123817807232</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9766652417577782</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9773002645731327</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9796340814709527</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9831668625386286</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9851751056441624</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.9850704465609846</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9809961464331058</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9763176984871178</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9769300976486022</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9791895502736768</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9826137866526733</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9845643991469936</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9844677073951085</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9805227359254315</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Baseline_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-12w</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-8w</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-4w</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>offset_0w</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>offset_4w</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>offset_8w</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>offset_12w</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.078810257606428</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.077828375626688</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.077087376175953</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.076087642505731</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.07477249192937</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.073750222498959</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.073281716268605</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.058151080864506</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.057216320765498</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.056511473102629</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.055559331741788</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.054304680705451</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.053328534350854</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.052879619778823</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.022447743834669</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.021565360317971</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.020897415298397</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.019999713308373</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.018825455386169</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.017915806793625</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.017504319922938</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.023198976744742</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.022342375436742</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.02169469018813</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.020822776381986</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.019679637196285</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.018792949411027</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.018389874087988</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.020702472903408</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.019873552523873</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.019247025711933</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.01840308567859</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.01729575294113</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.016436485946044</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.016045278132409</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.011677580185074</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.010877719784522</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.010271864102636</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.009458015743223</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.008394453062129</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.007571131375426</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.007199735658991</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.005091990898431</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.004317794013627</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.00373011972099</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.002942879493139</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.001918264450498</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.001127027387408</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.000773478499231</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Baseline_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-12w</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-8w</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-4w</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>offset_0w</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>offset_4w</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>offset_8w</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>offset_12w</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.425123192561618</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.422790447025481</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.417964487401055</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.410840589371282</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.405810754578343</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.404611130850506</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.410628769167254</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.268133293851272</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.266118805873758</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.261950229213482</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.255793412015664</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.251442753286911</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.250402307120082</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.255599998183863</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.098676007180803</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.096948728646613</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.093379885237993</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.088133377366182</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.084461892005923</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.083618914775508</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.088093685373871</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.090640860250545</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.088984077468647</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.085558793824286</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.080515084079315</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.076974567710953</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.07615157770052</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.080440972467265</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.084318778226554</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.082729026230342</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.079440306643396</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.074589744980074</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.071174278851273</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.070370686859187</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.074483898168773</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.035848862978149</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.034357358151392</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.03127472105266</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.026741293066681</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.023568751671597</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.022841701213344</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.026711205055352</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.029472263440376</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.028034448350957</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.025062123508624</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.020688792602552</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.017625932156941</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.016922159931868</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.020653006638022</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Baseline_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-12w</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-8w</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-4w</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>offset_0w</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>offset_4w</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>offset_8w</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>offset_12w</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.442461562616493</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.43939308484714</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.435495145094413</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.433098866580506</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.435294681044138</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.439432754991114</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.445546186276246</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.434880451538899</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.431915566486351</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.428148878181549</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.425833095793267</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.427955153736025</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.431953898876577</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.437860697144784</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.382130203312056</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.379349084514285</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.375815572611665</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.373642989218991</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.375633831983855</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.379385042294612</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.384925530747615</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.352337527279574</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.349695080186339</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.346337463075788</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.344272866026387</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.346164760457912</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.349729246339471</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.354993270344534</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.326106249967761</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.323591717345591</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.320396357982644</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.318431379411857</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.320231992894598</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.32362423081993</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.328633242110756</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.284297044358396</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.281930298929512</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.278922501216944</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.27707272976736</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.278767776786862</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.281960902542878</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.286675349656146</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.256711120039244</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.254458761363033</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.251596116634099</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.249835492742871</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.251448852480301</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.254487886835105</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.258974328990302</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Baseline_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-12w</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-8w</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-4w</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>offset_0w</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>offset_4w</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>offset_8w</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>offset_12w</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.905511569591872</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.900074981273613</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.889801312876947</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.878912060402172</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.877376573881966</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.882973551396204</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.89990102935002</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.719621806563011</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.714857396298067</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.705852562944305</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.696306171038702</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.694959874375152</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.699867040959191</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.714704943289616</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.485174476970069</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.481134035463826</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.47349679835471</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.465399220854829</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.464257160295546</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.468419797210105</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.481004743875354</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.441473845872734</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.437675368912297</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.430494340954128</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.422878821344521</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.421804612033064</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.425719778249807</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.437553813080391</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.408757151996942</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.40516554008257</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.39837449960284</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.39117100065725</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.390154779292674</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.393858442387121</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.40505059759132</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.314981827393539</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.311705670610287</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.305510420070931</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.298937930505346</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.298010647508934</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.301390075215817</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.311600819569462</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.287194856742449</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.284082417342266</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.278195949174791</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.271949884807237</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.271068559420319</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.274280382598294</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.283982801074025</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Baseline_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-12w</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-8w</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-4w</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>offset_0w</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>offset_4w</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>offset_8w</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>offset_12w</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.337085509195012</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.335456662114898</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.332756447476839</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.331767794715545</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.335440469329077</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.340565733845527</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.34684693157903</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.356026069894108</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.354420602823785</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.351758986570721</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.350784416296606</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.354404642100763</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.359456097673326</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.365645863148946</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.351785664985093</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.35023086930527</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.347653105977871</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.346709191479647</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.350215411983835</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.3551072034529</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.361100394003737</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.321675996571039</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.320198705066639</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.317749300261001</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.316852344136341</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.320184017952278</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.324831750278368</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.330525081622584</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.299209402516315</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.297799824370491</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.295462556842254</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.294606622812174</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.297785810151711</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.302220305076881</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.307651608354418</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.269472675398668</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.268135872262341</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.265919151725496</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.265107324772792</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.268122581301104</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.272327940552331</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.277477846848618</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.25034437784734</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.249065553593101</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.2469448630096</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.246168169990404</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.249052838822794</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.25307563627453</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.258001292038905</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Baseline_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-12w</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-8w</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-4w</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>offset_0w</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>offset_4w</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>offset_8w</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>offset_12w</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.027759284759854</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.035484950293102</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.053143638421966</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.07763383685823</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.093086765994345</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.098391118111241</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.089237601871983</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9069915030505361</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9136759894348451</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9289810638352087</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9502305051269695</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9636721523003159</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9683194276516409</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9604317044677558</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.011466927426073</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.018882305916154</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.035847384464117</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.059386717296311</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.074257729730762</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.079381956935922</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.07061970350267</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.080775640878679</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.088645881030595</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.106639050735924</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.131590609067123</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.147335674046584</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.152744983108299</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.143434716712434</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.108019107281621</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.116020909539482</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.134309001624026</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.159661785751554</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.175650851604265</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.181136406885885</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.171667331001743</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.109140945901336</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.117067091794684</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.135183187212769</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.160296308111244</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.176134050718436</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.181568745502098</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.172193577593588</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.082065713909946</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.089700309520915</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.107162129857312</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.131378160602765</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.146665035069728</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.151925999176405</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.142911932742838</v>
       </c>
     </row>
   </sheetData>
@@ -725,25 +3186,25 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1.254707796489577</v>
+        <v>1.859193279742304</v>
       </c>
       <c r="C2" t="n">
-        <v>1.25951404177468</v>
+        <v>1.855602681417073</v>
       </c>
       <c r="D2" t="n">
-        <v>1.264546080590965</v>
+        <v>1.850264316955235</v>
       </c>
       <c r="E2" t="n">
-        <v>1.268547895295776</v>
+        <v>1.846864492311286</v>
       </c>
       <c r="F2" t="n">
-        <v>1.271000195681067</v>
+        <v>1.850071500769944</v>
       </c>
       <c r="G2" t="n">
-        <v>1.271859230447773</v>
+        <v>1.856330676081263</v>
       </c>
       <c r="H2" t="n">
-        <v>1.271430586863524</v>
+        <v>1.865583872110549</v>
       </c>
     </row>
     <row r="3">
@@ -751,25 +3212,25 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>1.188710051857153</v>
+        <v>1.835418042435927</v>
       </c>
       <c r="C3" t="n">
-        <v>1.193207592987935</v>
+        <v>1.831925667715451</v>
       </c>
       <c r="D3" t="n">
-        <v>1.197916132693066</v>
+        <v>1.826733095739864</v>
       </c>
       <c r="E3" t="n">
-        <v>1.201660466208428</v>
+        <v>1.823425970030591</v>
       </c>
       <c r="F3" t="n">
-        <v>1.203954889774734</v>
+        <v>1.826545539994823</v>
       </c>
       <c r="G3" t="n">
-        <v>1.204758603968044</v>
+        <v>1.832633758121596</v>
       </c>
       <c r="H3" t="n">
-        <v>1.204357565482636</v>
+        <v>1.841633490997148</v>
       </c>
     </row>
     <row r="4">
@@ -777,25 +3238,25 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>1.164806830392531</v>
+        <v>1.723145789858167</v>
       </c>
       <c r="C4" t="n">
-        <v>1.169161234670609</v>
+        <v>1.719911422444808</v>
       </c>
       <c r="D4" t="n">
-        <v>1.173719650279116</v>
+        <v>1.715102260809986</v>
       </c>
       <c r="E4" t="n">
-        <v>1.177344403562765</v>
+        <v>1.712039200747024</v>
       </c>
       <c r="F4" t="n">
-        <v>1.179565465030026</v>
+        <v>1.714928549303919</v>
       </c>
       <c r="G4" t="n">
-        <v>1.180343465638904</v>
+        <v>1.720567209894282</v>
       </c>
       <c r="H4" t="n">
-        <v>1.17995525876403</v>
+        <v>1.728901786483753</v>
       </c>
     </row>
     <row r="5">
@@ -803,25 +3264,25 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>1.125823127415099</v>
+        <v>1.661471935234879</v>
       </c>
       <c r="C5" t="n">
-        <v>1.129980018268615</v>
+        <v>1.658393403993148</v>
       </c>
       <c r="D5" t="n">
-        <v>1.13433140271348</v>
+        <v>1.653815773342881</v>
       </c>
       <c r="E5" t="n">
-        <v>1.137791337015247</v>
+        <v>1.650900067534915</v>
       </c>
       <c r="F5" t="n">
-        <v>1.139911321894835</v>
+        <v>1.653650420905877</v>
       </c>
       <c r="G5" t="n">
-        <v>1.140653901983125</v>
+        <v>1.659017602624676</v>
       </c>
       <c r="H5" t="n">
-        <v>1.140283370223557</v>
+        <v>1.666950358545887</v>
       </c>
     </row>
     <row r="6">
@@ -829,25 +3290,25 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>1.117982142760628</v>
+        <v>1.588529799016055</v>
       </c>
       <c r="C6" t="n">
-        <v>1.122062261195572</v>
+        <v>1.585620998104111</v>
       </c>
       <c r="D6" t="n">
-        <v>1.126333040433146</v>
+        <v>1.581295594242111</v>
       </c>
       <c r="E6" t="n">
-        <v>1.129728707376673</v>
+        <v>1.578540447170325</v>
       </c>
       <c r="F6" t="n">
-        <v>1.131809237448787</v>
+        <v>1.581139349247178</v>
       </c>
       <c r="G6" t="n">
-        <v>1.132537983699587</v>
+        <v>1.586210789191445</v>
       </c>
       <c r="H6" t="n">
-        <v>1.132174355624406</v>
+        <v>1.593705971467435</v>
       </c>
     </row>
     <row r="7">
@@ -855,25 +3316,25 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>1.106682569876808</v>
+        <v>1.54733729158043</v>
       </c>
       <c r="C7" t="n">
-        <v>1.110671348873411</v>
+        <v>1.544535102639886</v>
       </c>
       <c r="D7" t="n">
-        <v>1.114846271512183</v>
+        <v>1.540368093894784</v>
       </c>
       <c r="E7" t="n">
-        <v>1.118165542173074</v>
+        <v>1.537713753745732</v>
       </c>
       <c r="F7" t="n">
-        <v>1.120199184878649</v>
+        <v>1.540217567469738</v>
       </c>
       <c r="G7" t="n">
-        <v>1.120911493687702</v>
+        <v>1.545103282995326</v>
       </c>
       <c r="H7" t="n">
-        <v>1.120556068450477</v>
+        <v>1.552323565788435</v>
       </c>
     </row>
     <row r="8">
@@ -881,25 +3342,2455 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>1.0988663013585</v>
+        <v>1.494686071712532</v>
       </c>
       <c r="C8" t="n">
-        <v>1.102778317266914</v>
+        <v>1.492010908066579</v>
       </c>
       <c r="D8" t="n">
-        <v>1.106872656204193</v>
+        <v>1.488032654900227</v>
       </c>
       <c r="E8" t="n">
-        <v>1.110127685202773</v>
+        <v>1.485498463910202</v>
       </c>
       <c r="F8" t="n">
-        <v>1.112121892617359</v>
+        <v>1.487888943873211</v>
       </c>
       <c r="G8" t="n">
-        <v>1.112820375103983</v>
+        <v>1.492553338415749</v>
       </c>
       <c r="H8" t="n">
-        <v>1.112471849757232</v>
+        <v>1.499446130112359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Baseline_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-12w</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-8w</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-4w</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>offset_0w</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>offset_4w</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>offset_8w</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>offset_12w</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9817533163501402</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9808664966646784</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9798598128716617</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9777943291498101</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9749867070736666</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9723655979655965</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9713564132061039</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.006689692207673</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.005791879766243</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.004773082610913</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.002676849291106</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9998217642027117</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9971542777134187</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9961226743518822</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9802909252505222</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9794207362063146</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9784326166632955</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.976408401660197</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9736601868545265</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9710959951324137</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9701119626693469</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9844660865289677</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9836012821203356</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9826192622396515</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9806070734852859</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9778748300451264</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9753255024876478</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.974347099984566</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9852615564291057</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9844041364164574</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9834304140580686</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9814358447189806</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.978728227694983</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9762022389672425</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9752336011643632</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9699282693707062</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.969087275624249</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9681313604565234</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.966184713401023</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9635534699630253</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.9611031613768704</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9601733524418403</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9577096778422898</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9568810657549254</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9559383703589274</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.95403026842464</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9514626729192232</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9490761579356177</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9481805850115609</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Baseline_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-12w</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-8w</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-4w</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>offset_0w</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>offset_4w</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>offset_8w</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>offset_12w</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9552366307053471</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9472532617562781</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9304142161841161</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9073530318985762</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.8919572877517672</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.8852635294772282</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.891776423745116</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.109921855741555</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.10081898987887</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.081586182675032</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.055193286135482</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.03751235502251</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.02977824180571</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.037161382447183</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9691774379070549</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.961269746779677</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.944572174760547</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9216732527590251</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9063562308260532</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.8996778099655258</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9061219025724082</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9108884853553778</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9035089364313614</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8879311294736991</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8665740645317774</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.8523005535042943</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.8460895660181041</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8521230689811283</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8892098971526904</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8820660329945476</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8669863438005516</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8463121375366621</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.8324990590186141</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.8264940723832571</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8323468405751021</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8744860362020989</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8675282646338723</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8528415249291961</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8327051518191936</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.8192548029490714</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.8134128166774224</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8191252458599828</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8850753383375333</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8781139707812107</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8634131755230158</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8432461414283979</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.8297651396175739</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.8239037565036131</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.8296182390326895</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Baseline_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-12w</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-8w</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-4w</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>offset_0w</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>offset_4w</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>offset_8w</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>offset_12w</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9875150114843048</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.982059355463028</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9751785676199189</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9711399148167471</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9754957879214996</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9833994704640657</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9949361906988123</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.01978471635664</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.014205751445602</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.007168880223175</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.003038321118576</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.00749331017341</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.01557619233104</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.027372997055088</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.001897173918275</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9964667412754116</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9896167024607165</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9855955435423451</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.98993253128453</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9978007294402919</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.009282849957851</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.023685817313862</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.01819366609797</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.011265207926534</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.007197719411819</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.01158466627619</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.019542852207513</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.031154798658539</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.023153371265716</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.017717119321651</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.010858651537837</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.006831977209932</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.011174895725563</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.019052607601824</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.030545741572179</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.037126831706481</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.03167025643674</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.024785617445493</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.020743300928778</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.025103081427149</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.033010771852913</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.044546243122795</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.022689272215431</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.017354541727121</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.010623188190759</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.00667063977559</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.010933594896571</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.018665152610487</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.02994250704397</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Baseline_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-12w</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-8w</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-4w</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>offset_0w</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>offset_4w</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>offset_8w</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>offset_12w</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9608427052206564</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9484052425726214</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9259691955041669</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9011780083372675</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.8924230155088587</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.8953090153852377</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9134243887549393</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.124359724348839</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.110027803262007</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.08416513471779</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.055573690495814</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.04547309763854</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.048802867452536</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.069699169941947</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9905387380958164</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9779998489417414</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9553692149087027</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9303453851655882</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9215037545344297</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9244185740076504</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9427090185766738</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9471769890017114</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9352845437067844</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9138166661062918</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8900725327175947</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.8816815245606294</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.8844478762842969</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9018046973624189</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9234076962588563</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9119158168296367</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8911669131520233</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8682117403372261</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.8600979570981788</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.8627730054385496</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8795548995047009</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9350721705289369</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9235526353025537</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9027491148469731</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8797264059129573</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.8715869426626751</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.8742705625764868</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8911038783092108</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9451267691682383</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9336094822019448</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9128050544151158</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8897737952085496</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.8816293895584743</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.8843147505471746</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9011564911849718</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Baseline_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-12w</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-8w</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-4w</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>offset_0w</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>offset_4w</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>offset_8w</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>offset_12w</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.005868780923078</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.001216127579447</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9952225357237341</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.993194464178526</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.000522141321661</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.011347452564709</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.02427510352753</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.013008004601944</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.008365420171531</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.002384416594875</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.000360506805085</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.007672913558564</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.018474487879513</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.031371962016162</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.022040649475798</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.017404170076206</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.011430614236432</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.009409118015092</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.016712549870784</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.027499582370574</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.040377697416206</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.03983857983689</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.035169112328793</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.029152640079119</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.027116514499558</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.034472547196565</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.045335992555394</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.05830334864739</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.038458635262236</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.033840758762415</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.027890369351693</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.025876508003662</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.033151866996822</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.043894970656813</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.056716811584196</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.069281991728495</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.064579303006716</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.058519183762681</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.056468071550941</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.063877733185358</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.074817785817111</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.087872560164666</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.067848948252814</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.063198529197028</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.057205380103426</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.055176835676161</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.062504734731088</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.073322877298104</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.086230327139015</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Baseline_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-12w</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-8w</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-4w</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>offset_0w</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>offset_4w</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>offset_8w</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>offset_12w</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.163131302668332</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.163131302668332</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.163131302668332</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.165742403847674</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.162719137009461</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.153521250874572</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.138326765348938</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.069500827359915</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.069500827359915</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.069500827359915</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.071824298226233</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.069143780952725</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.060972903090645</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.047468760765294</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.11515835012297</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.11515835012297</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.11515835012297</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.117519473174577</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.11479206546738</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.106483233236521</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.092750935100481</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.067755881029468</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.067755881029468</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.067755881029468</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.069941083820676</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.067426908759072</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.059751436522438</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.047059704553734</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.038587241919469</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.038587241919469</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.038587241919469</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.040644338025704</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.038286877418645</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.031074705251515</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.019143386802601</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9630729976303718</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9630729976303718</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9630729976303718</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9648935898488371</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9628309250915398</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.956482554898855</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9459681214047997</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9396191870328299</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9396191870328299</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9396191870328299</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.941336090469402</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9394037912778693</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9334357128932067</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9235443085493846</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Baseline_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-12w</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-8w</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-4w</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>offset_0w</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>offset_4w</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>offset_8w</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>offset_12w</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9720213503873451</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9720213503873451</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9720213503873451</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9719144881407363</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9715744972772853</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9713360611373745</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9721624550940936</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9902703471616615</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9902703471616615</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9902703471616615</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9901646035354155</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9898246797566347</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.989583905420701</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9903999631979611</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9854751234073731</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9854751234073731</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9854751234073731</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9853725827892572</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9850450226050829</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9848144364416491</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9856066952028947</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9813811827438165</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9813811827438165</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9813811827438165</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9812812872626984</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9809649993447498</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9807443027434883</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9815174048833188</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9839029635188357</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9839029635188357</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9839029635188357</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.983805284284694</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9834955448346088</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9832791098359611</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9840348017894274</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9794497934747831</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9794497934747831</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9794497934747831</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9793542708313238</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9790554208854984</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.9788494093269735</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9795902789891545</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9779299630879231</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9779299630879231</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9779299630879231</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.977836237787682</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9775454254424141</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9773466582701014</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9780746876287211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Baseline_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-12w</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-8w</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-4w</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>offset_0w</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>offset_4w</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>offset_8w</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>offset_12w</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.835693569726339</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.835693569726339</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.835693569726339</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8337300632908393</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.8356054926353033</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.8420616962201005</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.8540275821381492</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9259182618924797</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9259182618924797</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9259182618924797</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9238124244561758</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9258106322000874</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9327136466332118</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9455174228531283</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8837086888141967</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8837086888141967</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8837086888141967</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8817498096834721</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8836132343587318</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.8900400899532983</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9019499901981468</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9191063240013497</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9191063240013497</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9191063240013497</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9171358143932744</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9189996910281775</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9254474860272792</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9374034743335391</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9473474387191892</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9473474387191892</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9473474387191892</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9453809032883947</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9472291003809497</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9536448763875991</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9655508876691821</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.01700472953214</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.01700472953214</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.01700472953214</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.014986814229693</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.016850825384962</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.023384487582718</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.035542590520307</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.040772662567771</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.040772662567771</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.040772662567771</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.038774830464727</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.040601958943194</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.047042281295186</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.059044680990983</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Baseline_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-12w</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-8w</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-4w</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>offset_0w</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>offset_4w</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>offset_8w</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>offset_12w</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9806960872100084</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9806960872100084</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9806960872100084</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9806649278704429</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9810173029787118</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9815378683699333</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9819485303143111</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9785276488157034</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9785276488157034</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9785276488157034</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9784972263295463</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9788404461584058</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.979347651518324</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9797482726465974</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.013018464927569</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.013018464927569</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.013018464927569</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.012989866946236</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.013328956285232</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.013826022204213</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.014207382895544</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.004312292157618</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.004312292157618</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.004312292157618</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.004284513264886</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.004612656269216</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.005093930479307</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.005463927500804</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.005073738741183</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.005073738741183</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.005073738741183</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.005047001682449</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.005366251539626</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.005833662407067</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.0061907213599</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.002540256557861</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.002540256557861</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.002540256557861</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.002514250624552</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.002825247422559</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.003280440526577</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.003627814970641</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.989968860628604</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.989968860628604</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.989968860628604</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9899425339747391</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9902469882990861</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9906949622694549</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9910435072970194</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Baseline_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-12w</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-8w</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-4w</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>offset_0w</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>offset_4w</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>offset_8w</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>offset_12w</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.843151658768189</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.843151658768189</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.843151658768189</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.841236386901291</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.8437268053417524</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.8509057528205525</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.8626244767365272</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9149386552895141</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9149386552895141</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9149386552895141</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9129268929141333</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9155367721319488</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.923065658571916</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9353484412564061</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9084077295532619</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9084077295532619</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9084077295532619</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9064628324270713</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9089847225100144</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9162597242786222</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9281230976958945</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9405823091223057</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9405823091223057</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9405823091223057</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9386353402550583</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9411535797210884</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9484242208507971</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9602737294998303</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9677316436928807</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9677316436928807</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9677316436928807</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9657929851318937</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9682933237479939</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9755196760080626</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9872906348503739</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.040980547709881</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.040980547709881</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.040980547709881</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.038989440049662</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.041538261068231</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.048927066560739</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.06095310429723</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.0535851909908</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.0535851909908</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.0535851909908</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.051635589028674</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.054122835667988</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.061342466958728</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.073087125460885</v>
       </c>
     </row>
   </sheetData>
@@ -968,25 +5859,25 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1.127937814122189</v>
+        <v>1.230662200575042</v>
       </c>
       <c r="C2" t="n">
-        <v>1.127937814122189</v>
+        <v>1.230662200575042</v>
       </c>
       <c r="D2" t="n">
-        <v>1.127937813981938</v>
+        <v>1.230662200575042</v>
       </c>
       <c r="E2" t="n">
-        <v>1.127937813909137</v>
+        <v>1.23066220059984</v>
       </c>
       <c r="F2" t="n">
-        <v>1.127937813840446</v>
+        <v>1.230662200585777</v>
       </c>
       <c r="G2" t="n">
-        <v>1.127937813778213</v>
+        <v>1.230662200581958</v>
       </c>
       <c r="H2" t="n">
-        <v>1.127937813738202</v>
+        <v>1.230662200583941</v>
       </c>
     </row>
     <row r="3">
@@ -994,25 +5885,25 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>1.089078964921152</v>
+        <v>1.245336258314303</v>
       </c>
       <c r="C3" t="n">
-        <v>1.089078964921152</v>
+        <v>1.245336258314303</v>
       </c>
       <c r="D3" t="n">
-        <v>1.08907896478714</v>
+        <v>1.245336258314303</v>
       </c>
       <c r="E3" t="n">
-        <v>1.089078964717577</v>
+        <v>1.245336258339201</v>
       </c>
       <c r="F3" t="n">
-        <v>1.089078964651941</v>
+        <v>1.245336258325082</v>
       </c>
       <c r="G3" t="n">
-        <v>1.089078964592476</v>
+        <v>1.245336258321246</v>
       </c>
       <c r="H3" t="n">
-        <v>1.089078964554245</v>
+        <v>1.245336258323239</v>
       </c>
     </row>
     <row r="4">
@@ -1020,25 +5911,25 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>1.089864685651816</v>
+        <v>1.168933024456128</v>
       </c>
       <c r="C4" t="n">
-        <v>1.089864685651816</v>
+        <v>1.168933024456128</v>
       </c>
       <c r="D4" t="n">
-        <v>1.089864685519131</v>
+        <v>1.168933024456128</v>
       </c>
       <c r="E4" t="n">
-        <v>1.089864685450256</v>
+        <v>1.168933024479292</v>
       </c>
       <c r="F4" t="n">
-        <v>1.08986468538527</v>
+        <v>1.168933024466156</v>
       </c>
       <c r="G4" t="n">
-        <v>1.089864685326394</v>
+        <v>1.168933024462588</v>
       </c>
       <c r="H4" t="n">
-        <v>1.089864685288541</v>
+        <v>1.168933024464441</v>
       </c>
     </row>
     <row r="5">
@@ -1046,25 +5937,25 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>1.066328403651725</v>
+        <v>1.172002288157076</v>
       </c>
       <c r="C5" t="n">
-        <v>1.066328403651725</v>
+        <v>1.172002288157076</v>
       </c>
       <c r="D5" t="n">
-        <v>1.066328403523321</v>
+        <v>1.172002288157076</v>
       </c>
       <c r="E5" t="n">
-        <v>1.066328403456669</v>
+        <v>1.172002288180105</v>
       </c>
       <c r="F5" t="n">
-        <v>1.066328403393779</v>
+        <v>1.172002288167046</v>
       </c>
       <c r="G5" t="n">
-        <v>1.066328403336803</v>
+        <v>1.172002288163499</v>
       </c>
       <c r="H5" t="n">
-        <v>1.066328403300171</v>
+        <v>1.172002288165341</v>
       </c>
     </row>
     <row r="6">
@@ -1072,25 +5963,25 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>1.066579867108172</v>
+        <v>1.109918028822478</v>
       </c>
       <c r="C6" t="n">
-        <v>1.066579867108172</v>
+        <v>1.109918028822478</v>
       </c>
       <c r="D6" t="n">
-        <v>1.066579866981054</v>
+        <v>1.109918028822478</v>
       </c>
       <c r="E6" t="n">
-        <v>1.06657986691507</v>
+        <v>1.109918028844096</v>
       </c>
       <c r="F6" t="n">
-        <v>1.06657986685281</v>
+        <v>1.109918028831836</v>
       </c>
       <c r="G6" t="n">
-        <v>1.066579866796404</v>
+        <v>1.109918028828507</v>
       </c>
       <c r="H6" t="n">
-        <v>1.06657986676014</v>
+        <v>1.109918028830236</v>
       </c>
     </row>
     <row r="7">
@@ -1098,25 +5989,25 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>1.067096751188342</v>
+        <v>1.115189010078253</v>
       </c>
       <c r="C7" t="n">
-        <v>1.067096751188342</v>
+        <v>1.115189010078253</v>
       </c>
       <c r="D7" t="n">
-        <v>1.06709675106261</v>
+        <v>1.115189010078253</v>
       </c>
       <c r="E7" t="n">
-        <v>1.067096750997345</v>
+        <v>1.115189010099801</v>
       </c>
       <c r="F7" t="n">
-        <v>1.067096750935764</v>
+        <v>1.115189010087581</v>
       </c>
       <c r="G7" t="n">
-        <v>1.067096750879973</v>
+        <v>1.115189010084262</v>
       </c>
       <c r="H7" t="n">
-        <v>1.067096750844104</v>
+        <v>1.115189010085986</v>
       </c>
     </row>
     <row r="8">
@@ -1124,25 +6015,2698 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>1.073702284265532</v>
+        <v>1.096937415430045</v>
       </c>
       <c r="C8" t="n">
-        <v>1.073702284265532</v>
+        <v>1.096937415430045</v>
       </c>
       <c r="D8" t="n">
-        <v>1.073702284140509</v>
+        <v>1.096937415430045</v>
       </c>
       <c r="E8" t="n">
-        <v>1.073702284075611</v>
+        <v>1.096937415451043</v>
       </c>
       <c r="F8" t="n">
-        <v>1.073702284014378</v>
+        <v>1.096937415439135</v>
       </c>
       <c r="G8" t="n">
-        <v>1.073702283958901</v>
+        <v>1.096937415435901</v>
       </c>
       <c r="H8" t="n">
-        <v>1.073702283923235</v>
+        <v>1.096937415437581</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Baseline_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-12w</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-8w</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-4w</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>offset_0w</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>offset_4w</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>offset_8w</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>offset_12w</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.008924430331912</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.008924430331912</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.008924430331912</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.009003302076962</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.009719075302912</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.010502860586287</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.010066296192513</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9881419267176732</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9881419267176732</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9881419267176732</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9882167296586744</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9889028493400169</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9896560020365074</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9892450616446211</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.027949301677918</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.027949301677918</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.027949301677918</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.02802725044247</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.028713341046432</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.029458936312296</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.029018357760609</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.023366159670689</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.023366159670689</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.023366159670689</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.023442030639711</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.024106524636722</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.024827702457923</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.024397450822925</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.021517137367522</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.021517137367522</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.021517137367522</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.021591383718984</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.022237728294636</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.022938097988137</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.022515382108623</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.023574932821375</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.023574932821375</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.023574932821375</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.023648214423539</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.02427832585367</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.024958927253582</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.024538357001962</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.012310592777694</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.012310592777694</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.012310592777694</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.012380699056978</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.012993322382869</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.01365769646461</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.013259539207318</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Baseline_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-12w</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-8w</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-4w</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>offset_0w</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>offset_4w</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>offset_8w</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>offset_12w</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.152790451738531</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.152790451738531</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.152790451738531</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.152020648192132</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.154717297735071</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.160169036735204</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.168589258531788</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.103408194545544</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.103408194545544</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.103408194545544</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.102689552408729</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.105206913205591</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.110295604446102</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.118153564375816</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.121439840156634</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.121439840156634</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.121439840156634</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.120729907582427</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.123216684469514</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.128242913283206</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.136002743432486</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.117878079549141</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.117878079549141</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.117878079549141</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.117188213937466</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.119604636070249</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.124488123086554</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.132026157963776</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.113473498383865</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.113473498383865</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.113473498383865</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.112802907219583</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.115151758349371</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.119898195856995</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.127223396565096</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.122221948287777</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.122221948287777</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.122221948287777</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.121561522992259</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.12387471415401</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.128548644475976</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.135760772267078</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.112824005536604</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.112824005536604</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.112824005536604</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.11218251524911</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.11442934049954</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.118968794477079</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.125972421495777</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Baseline_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-12w</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-8w</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-4w</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>offset_0w</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>offset_4w</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>offset_8w</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>offset_12w</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9911094724163317</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9911094724163317</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9911094724163317</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9882291700033806</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9931179946904708</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.005763037183399</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.026585066875392</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.031703918611573</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.031703918611573</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.031703918611573</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.028796934566211</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.033730853506653</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.046488181942987</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.067481538598706</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.005632823385998</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.005632823385998</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.005632823385998</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.002872821892517</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.007557121424794</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.019665621125624</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.039580664671797</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.046941627211033</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.046941627211033</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.046941627211033</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.044158627826566</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.048881779991696</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.061086670263499</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.081147668122952</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.072103963385873</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.072103963385873</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.072103963385873</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.06934027943762</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.074030484832694</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.086146513102378</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.106049856342178</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.165251181425488</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.165251181425488</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.165251181425488</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.162368094048553</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.167260715111699</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.179894644911026</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.200633241826827</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.184335123094632</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.184335123094632</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.184335123094632</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.181493545726601</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.186315566156683</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.198763641696125</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.219186140905733</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Baseline_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-12w</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-8w</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-4w</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>offset_0w</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>offset_4w</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>offset_8w</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>offset_12w</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.185972356758574</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.185972356758574</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.185972356758574</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.185310706084789</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.188501037204064</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.194405400100885</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.202051418884185</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.114249454917196</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.114249454917196</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.114249454917196</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.113642669583965</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.116568353778899</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.121982277969732</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.128991928438026</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.137968695018044</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.137968695018044</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.137968695018044</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.137366644005883</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.140269387381927</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.145640103895913</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.15259235652679</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.139086523366687</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.139086523366687</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.139086523366687</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.138499458247983</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.141329850522808</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.146566051865877</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.153342928338952</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.131690359384255</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.131690359384255</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.131690359384255</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.131121091739897</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.13386559217907</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.138942325382898</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.145511718198672</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.145767711386699</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.145767711386699</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.145767711386699</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.145205117694767</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.147917360119952</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.152933876981068</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.159424298737506</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.13793834685537</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.13793834685537</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.13793834685537</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.137391387504089</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.140028188454952</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.144904712170038</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.151213128954011</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Baseline_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-12w</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-8w</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-4w</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>offset_0w</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>offset_4w</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>offset_8w</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>offset_12w</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.175481850874021</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.175481850874021</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.175481850874021</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.174734219050534</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.177061091816571</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.181991112234853</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.190071803618602</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.127620865778275</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.127620865778275</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.127620865778275</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.126921490155922</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.129098125790703</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.13370936533596</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.141266175805897</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.107028034515459</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.107028034515459</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.107028034515459</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.106358458412802</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.10844230543566</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.112856534132191</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.120089207188788</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.113078161323251</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.113078161323251</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.113078161323251</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.112422027006604</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.114463996728922</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.118789089244934</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.125874461530964</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.107852544011794</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.107852544011794</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.107852544011794</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.107214792300013</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.109199514745615</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.113402978755911</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.1202880056791</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.119378439865181</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.119378439865181</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.119378439865181</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.118748708353565</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.120708435535074</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.124858612696218</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.131655336097178</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.124100009398266</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.124100009398266</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.124100009398266</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.123481896250646</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.125405432854442</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.129478635799034</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.136148325684272</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Baseline_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-12w</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-8w</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-4w</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>offset_0w</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>offset_4w</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>offset_8w</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>offset_12w</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.398335370494283</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.395942206679507</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.391998004852522</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.389658051279669</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.393127994128868</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.399206984563765</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.408042791506395</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.431686635909493</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.42926801627802</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.425281708006973</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.422916684428333</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.426423779920549</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.432567503906186</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.441496598944542</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.354872343297718</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.352611220980964</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.348884363867691</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.346673191476699</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.349952120177519</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.355695835325503</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.364042875707739</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.329152912576748</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.326960237971319</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.323346078635898</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.321201699993946</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.324381561956998</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.329951462563077</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.338045275931075</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.320876050159505</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.318723860576412</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.315176307668203</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.313071375060948</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.31619272361325</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.321659841745401</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.329603643177234</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.282620422242485</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.280555510991496</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.277151708597803</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.275132002670573</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.278126952877591</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.283372415509421</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.290993546748236</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.252172660363883</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.250180288777722</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.246895954329485</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.244947074051636</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.247836982679308</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.252898224237378</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.260251140451368</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Baseline_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-12w</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-8w</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-4w</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>offset_0w</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>offset_4w</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>offset_8w</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>offset_12w</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.341076586823065</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.338781417842691</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.334998722465739</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.332754584888315</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.336082441212526</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.341912510180406</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.350386510099403</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.313635065372285</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.311415876141862</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.30775826405532</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.305588251550229</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.308806165019157</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.314443300244229</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.32263613521948</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.270881901344702</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.268760949176188</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.26526512516489</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.26319102646007</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.266266689821588</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.271654343927804</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.279483939537991</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.251160452432367</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.249096440285488</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.245694353737287</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.243675803631854</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.246669076697171</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.251912144831538</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.259531026827328</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.253977786284766</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.251934598406591</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.24856671800862</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.24656839369138</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.249531655707431</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.254721881249217</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.262263353844508</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.219821140198209</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.217857330517842</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.214620184080107</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.212699366397598</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.215547678795662</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.220536314578333</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.227784302241718</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.20011187862507</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.198202342594233</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.195054558807911</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.193186705878781</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.195956462680434</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.200807276179169</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.207854484898991</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Baseline_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-12w</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-8w</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-4w</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>offset_0w</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>offset_4w</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>offset_8w</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>offset_12w</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9590521809864697</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9590521809833493</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9590521809743381</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9590521809743381</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9590521810223094</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9590521809743381</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9590521809743381</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9175437085349235</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9175437085319661</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9175437085234254</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9175437085234254</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9175437085688914</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9175437085234254</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9175437085234254</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9380085936741571</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9380085936711628</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9380085936625155</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9380085936625155</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9380085937085481</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9380085936625155</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9380085936625155</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9413216798410485</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.941321679838071</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9413216798294711</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9413216798294711</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9413216798752514</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9413216798294711</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9413216798294711</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9493531101069926</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9493531101040159</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9493531100954196</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9493531100954196</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9493531101411814</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9493531100954196</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9493531100954196</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9510382955430567</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9510382955401061</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9510382955315848</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9510382955315848</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9510382955769472</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.9510382955315848</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9510382955315848</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9584236396571034</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9584236396541598</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9584236396456577</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9584236396456577</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9584236396909169</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9584236396456577</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9584236396456577</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Baseline_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-12w</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-8w</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-4w</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>offset_0w</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>offset_4w</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>offset_8w</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>offset_12w</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.125196572279298</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.123559421552636</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.12060445688744</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.119168571528932</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.122723532019601</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.128234888908302</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.135863013913518</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.103891914179539</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.102305477231166</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.099441954784049</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.09805045991641</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.101495466718849</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.106836015780103</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.114227043041883</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.080768426560585</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.079233792970342</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.076463688930711</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.075117549273222</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.078450219247933</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.08361630103107</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.090765236122943</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.067507333363545</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.066010178485596</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.063307639715223</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.061994293578749</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.065245728046469</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.070285567328255</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.07725917203266</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.059687216501553</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.058218245510804</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.055566503491565</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.05427780644035</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.057468173878506</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.062413068312182</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.069254720751237</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.048327008202264</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.046891811059023</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.044300955497405</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.04304181041657</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.046158972354146</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.050990103852059</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.057673759566795</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.034382433565761</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.032983699783079</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.030458591705606</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.029231363751329</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.032269468212292</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.036977788617235</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.043490973021466</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Baseline_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-12w</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-8w</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-4w</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>offset_0w</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>offset_4w</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>offset_8w</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>offset_12w</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.269151761755564</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.267305157567921</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.263972141261539</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.262352551940905</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.26636232628407</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.272578794134134</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.281182844277634</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.202225462868019</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.200497707781218</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.197379105792425</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.195863658069753</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.199615542491716</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.205431822143173</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.213481233993767</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.177891341077004</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.176218798143722</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.173199759647015</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.171732649637772</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.175364808932212</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.180995139038464</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.188786510480046</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.138313390290808</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.136716931540941</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.133835137756619</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.132434679529992</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.135901776436491</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.141275900219782</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.148712052557034</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.130241050177789</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.128674275314474</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.125845980731295</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.124471482463115</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.127874264122633</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.133148388977827</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.14044555729965</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.118666344269021</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.117134850080485</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.114370156593736</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.113026527028833</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.116352840387074</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.121508125120277</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.128640232001247</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.110618781364004</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.1091169577264</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.106405743480203</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.105088066081388</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.108350085763059</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.113405420144155</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.120398640706295</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Baseline_Weeks</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-12w</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-8w</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>offset_-4w</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>offset_0w</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>offset_4w</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>offset_8w</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>offset_12w</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.1279378137321</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.127937813753228</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.127937813822652</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.127937813886575</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.127937813867752</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.127937813876241</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.127937813437052</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.089078964548414</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.089078964568603</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.089078964634938</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.089078964696021</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.089078964678038</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.089078964686182</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.08907896426649</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.089864685282768</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.089864685302756</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.089864685368435</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.089864685428921</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.08986468541113</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.08986468541931</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.089864685003634</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.066328403294584</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.066328403313928</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.066328403377488</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.066328403436021</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.066328403418802</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.066328403426703</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.066328403024456</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.066579866754609</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.066579866773759</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.066579866836682</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.066579866894634</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.066579866877598</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.066579866885503</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.066579866487188</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.067096750838633</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.067096750857574</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.067096750919811</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.067096750977137</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.067096750960299</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.067096750968213</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.067096750574127</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.073702283917795</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.073702283936629</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.073702283998516</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.073702284055528</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.073702284038803</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.073702284046829</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.073702283654779</v>
       </c>
     </row>
   </sheetData>
